--- a/Data/Archive/Screentime:Technology Access&UseModule.xlsx
+++ b/Data/Archive/Screentime:Technology Access&UseModule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/Screentime:"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/Archive/Screentime:"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00377C44-AC08-AE4B-9C0B-F240EFD92AEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94E62B4-75D6-C748-967A-58ABB38FF364}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{106FD9CA-5550-9F44-BB7C-9DF2CD200E8A}"/>
   </bookViews>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5446F612-74BB-AD47-A8D2-96B01472B726}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
